--- a/earlywarning-pom/earlywarning-config/src/baf-instances/23_Inst_Workspace_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/23_Inst_Workspace_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>Corporate BE</t>
   </si>
   <si>
-    <t>CUSTOMER_BE</t>
-  </si>
-  <si>
     <t>WS000001_CUSTOMER_BE</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>WS000001_BE_TARGET</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_BIB</t>
   </si>
 </sst>
 </file>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,19 +1063,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,19 +1189,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/23_Inst_Workspace_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/23_Inst_Workspace_BE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -950,7 +950,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/23_Inst_Workspace_BE.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/23_Inst_Workspace_BE.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="2040" yWindow="0" windowWidth="20610" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="r Workspace_TargetVariable" sheetId="5" r:id="rId4"/>
     <sheet name="Fields definition" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -28,7 +23,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +47,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +71,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t>Workspace</t>
   </si>
@@ -205,12 +200,6 @@
     <t>WS000001</t>
   </si>
   <si>
-    <t>Corporate BE</t>
-  </si>
-  <si>
-    <t>WS000001_CUSTOMER_BE</t>
-  </si>
-  <si>
     <t>BE_TARGET</t>
   </si>
   <si>
@@ -218,6 +207,9 @@
   </si>
   <si>
     <t>COUNTERPARTY_BIB</t>
+  </si>
+  <si>
+    <t>WS000001_COUNTERPARTY_BIB</t>
   </si>
 </sst>
 </file>
@@ -727,7 +719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,7 +754,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -939,7 +931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,7 +942,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,10 +988,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>17</v>
@@ -1016,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1063,19 +1055,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1189,19 +1181,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
